--- a/vr/dataset.xlsx
+++ b/vr/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Tensorflow\vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EF56B9-E5D2-4F24-9455-D5D8B6BDB517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EFA65A-0FF9-41CF-BB77-AE2EBFABB556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24789" yWindow="1886" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,7 +485,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1">
         <v>54</v>
@@ -494,19 +494,19 @@
         <v>55</v>
       </c>
       <c r="G3" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1">
         <v>59</v>
       </c>
       <c r="K3" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -520,7 +520,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1">
         <v>55</v>
@@ -529,19 +529,19 @@
         <v>56</v>
       </c>
       <c r="G4" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J4" s="1">
         <v>60</v>
       </c>
       <c r="K4" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1">
         <v>56</v>
@@ -564,19 +564,19 @@
         <v>57</v>
       </c>
       <c r="G5" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1">
         <v>61</v>
       </c>
       <c r="K5" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -590,7 +590,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1">
         <v>57</v>
@@ -599,19 +599,19 @@
         <v>58</v>
       </c>
       <c r="G6" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1">
         <v>62</v>
       </c>
       <c r="K6" s="1">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1">
         <v>58</v>
@@ -634,19 +634,19 @@
         <v>59</v>
       </c>
       <c r="G7" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1">
         <v>63</v>
       </c>
       <c r="K7" s="1">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1">
         <v>59</v>
@@ -669,19 +669,19 @@
         <v>60</v>
       </c>
       <c r="G8" s="1">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1">
         <v>64</v>
       </c>
       <c r="K8" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="1">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1">
         <v>60</v>
@@ -704,19 +704,19 @@
         <v>61</v>
       </c>
       <c r="G9" s="1">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I9" s="1">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1">
         <v>65</v>
       </c>
       <c r="K9" s="1">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="1">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
         <v>61</v>
@@ -739,19 +739,19 @@
         <v>62</v>
       </c>
       <c r="G10" s="1">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H10" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I10" s="1">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J10" s="1">
         <v>66</v>
       </c>
       <c r="K10" s="1">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="1">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1">
         <v>62</v>
@@ -774,19 +774,19 @@
         <v>63</v>
       </c>
       <c r="G11" s="1">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J11" s="1">
         <v>67</v>
       </c>
       <c r="K11" s="1">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="1">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1">
         <v>63</v>
@@ -809,19 +809,19 @@
         <v>64</v>
       </c>
       <c r="G12" s="1">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H12" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I12" s="1">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1">
         <v>68</v>
       </c>
       <c r="K12" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -835,7 +835,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="1">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1">
         <v>64</v>
@@ -844,19 +844,19 @@
         <v>65</v>
       </c>
       <c r="G13" s="1">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I13" s="1">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1">
         <v>69</v>
       </c>
       <c r="K13" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="1">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1">
         <v>65</v>
@@ -879,19 +879,19 @@
         <v>66</v>
       </c>
       <c r="G14" s="1">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H14" s="1">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I14" s="1">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J14" s="1">
         <v>70</v>
       </c>
       <c r="K14" s="1">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1">
         <v>66</v>
@@ -914,19 +914,19 @@
         <v>67</v>
       </c>
       <c r="G15" s="1">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1">
         <v>71</v>
       </c>
       <c r="K15" s="1">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>65</v>
       </c>
       <c r="D16" s="1">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1">
         <v>67</v>
@@ -949,19 +949,19 @@
         <v>68</v>
       </c>
       <c r="G16" s="1">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H16" s="1">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1">
         <v>72</v>
       </c>
       <c r="K16" s="1">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -975,7 +975,7 @@
         <v>66</v>
       </c>
       <c r="D17" s="1">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1">
         <v>68</v>
@@ -984,19 +984,19 @@
         <v>69</v>
       </c>
       <c r="G17" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H17" s="1">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="I17" s="1">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J17" s="1">
         <v>73</v>
       </c>
       <c r="K17" s="1">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1010,7 +1010,7 @@
         <v>67</v>
       </c>
       <c r="D18" s="1">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1">
         <v>69</v>
@@ -1019,19 +1019,19 @@
         <v>70</v>
       </c>
       <c r="G18" s="1">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H18" s="1">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I18" s="1">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1">
         <v>74</v>
       </c>
       <c r="K18" s="1">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>68</v>
       </c>
       <c r="D19" s="1">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1">
         <v>70</v>
@@ -1054,19 +1054,19 @@
         <v>71</v>
       </c>
       <c r="G19" s="1">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H19" s="1">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I19" s="1">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="J19" s="1">
         <v>75</v>
       </c>
       <c r="K19" s="1">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1080,7 +1080,7 @@
         <v>69</v>
       </c>
       <c r="D20" s="1">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1">
         <v>71</v>
@@ -1089,19 +1089,19 @@
         <v>72</v>
       </c>
       <c r="G20" s="1">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H20" s="1">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I20" s="1">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J20" s="1">
         <v>76</v>
       </c>
       <c r="K20" s="1">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="1">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1">
         <v>72</v>
@@ -1124,19 +1124,19 @@
         <v>73</v>
       </c>
       <c r="G21" s="1">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H21" s="1">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="I21" s="1">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J21" s="1">
         <v>77</v>
       </c>
       <c r="K21" s="1">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="1">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1">
         <v>73</v>
@@ -1159,19 +1159,19 @@
         <v>74</v>
       </c>
       <c r="G22" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H22" s="1">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I22" s="1">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="J22" s="1">
         <v>78</v>
       </c>
       <c r="K22" s="1">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="1">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E23" s="1">
         <v>74</v>
@@ -1194,19 +1194,19 @@
         <v>75</v>
       </c>
       <c r="G23" s="1">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="I23" s="1">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="J23" s="1">
         <v>79</v>
       </c>
       <c r="K23" s="1">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1220,7 +1220,7 @@
         <v>73</v>
       </c>
       <c r="D24" s="1">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1">
         <v>75</v>
@@ -1229,19 +1229,19 @@
         <v>76</v>
       </c>
       <c r="G24" s="1">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H24" s="1">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I24" s="1">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="J24" s="1">
         <v>80</v>
       </c>
       <c r="K24" s="1">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1255,7 +1255,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="1">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1">
         <v>76</v>
@@ -1264,19 +1264,19 @@
         <v>77</v>
       </c>
       <c r="G25" s="1">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H25" s="1">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I25" s="1">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="J25" s="1">
         <v>81</v>
       </c>
       <c r="K25" s="1">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1290,7 +1290,7 @@
         <v>75</v>
       </c>
       <c r="D26" s="1">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1">
         <v>77</v>
@@ -1299,19 +1299,19 @@
         <v>78</v>
       </c>
       <c r="G26" s="1">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="H26" s="1">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I26" s="1">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="J26" s="1">
         <v>82</v>
       </c>
       <c r="K26" s="1">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1325,7 +1325,7 @@
         <v>76</v>
       </c>
       <c r="D27" s="1">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1">
         <v>78</v>
@@ -1334,19 +1334,19 @@
         <v>79</v>
       </c>
       <c r="G27" s="1">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H27" s="1">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I27" s="1">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="J27" s="1">
         <v>83</v>
       </c>
       <c r="K27" s="1">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1360,7 +1360,7 @@
         <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1">
         <v>79</v>
@@ -1369,19 +1369,19 @@
         <v>80</v>
       </c>
       <c r="G28" s="1">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H28" s="1">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I28" s="1">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="J28" s="1">
         <v>84</v>
       </c>
       <c r="K28" s="1">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1">
         <v>80</v>
@@ -1404,19 +1404,19 @@
         <v>81</v>
       </c>
       <c r="G29" s="1">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H29" s="1">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="I29" s="1">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="J29" s="1">
         <v>85</v>
       </c>
       <c r="K29" s="1">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>79</v>
       </c>
       <c r="D30" s="1">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1">
         <v>81</v>
@@ -1439,19 +1439,19 @@
         <v>82</v>
       </c>
       <c r="G30" s="1">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H30" s="1">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="I30" s="1">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="J30" s="1">
         <v>86</v>
       </c>
       <c r="K30" s="1">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="1">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1">
         <v>82</v>
@@ -1474,19 +1474,19 @@
         <v>83</v>
       </c>
       <c r="G31" s="1">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H31" s="1">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I31" s="1">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="J31" s="1">
         <v>87</v>
       </c>
       <c r="K31" s="1">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1500,7 +1500,7 @@
         <v>81</v>
       </c>
       <c r="D32" s="1">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1">
         <v>83</v>
@@ -1509,19 +1509,19 @@
         <v>84</v>
       </c>
       <c r="G32" s="1">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="H32" s="1">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I32" s="1">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="J32" s="1">
         <v>88</v>
       </c>
       <c r="K32" s="1">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>82</v>
       </c>
       <c r="D33" s="1">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1">
         <v>84</v>
@@ -1544,19 +1544,19 @@
         <v>85</v>
       </c>
       <c r="G33" s="1">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="H33" s="1">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="I33" s="1">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J33" s="1">
         <v>89</v>
       </c>
       <c r="K33" s="1">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
         <v>83</v>
       </c>
       <c r="D34" s="1">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1">
         <v>85</v>
@@ -1579,19 +1579,19 @@
         <v>86</v>
       </c>
       <c r="G34" s="1">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H34" s="1">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I34" s="1">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="J34" s="1">
         <v>90</v>
       </c>
       <c r="K34" s="1">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1605,7 +1605,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="1">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1">
         <v>86</v>
@@ -1614,19 +1614,19 @@
         <v>87</v>
       </c>
       <c r="G35" s="1">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="H35" s="1">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="I35" s="1">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="J35" s="1">
         <v>91</v>
       </c>
       <c r="K35" s="1">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1640,7 +1640,7 @@
         <v>85</v>
       </c>
       <c r="D36" s="1">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E36" s="1">
         <v>87</v>
@@ -1649,19 +1649,19 @@
         <v>88</v>
       </c>
       <c r="G36" s="1">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H36" s="1">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I36" s="1">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="J36" s="1">
         <v>92</v>
       </c>
       <c r="K36" s="1">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1675,7 +1675,7 @@
         <v>86</v>
       </c>
       <c r="D37" s="1">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E37" s="1">
         <v>88</v>
@@ -1684,19 +1684,19 @@
         <v>89</v>
       </c>
       <c r="G37" s="1">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H37" s="1">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="I37" s="1">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1">
         <v>93</v>
       </c>
       <c r="K37" s="1">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>87</v>
       </c>
       <c r="D38" s="1">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1">
         <v>89</v>
@@ -1719,19 +1719,19 @@
         <v>90</v>
       </c>
       <c r="G38" s="1">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="I38" s="1">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J38" s="1">
         <v>94</v>
       </c>
       <c r="K38" s="1">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
         <v>88</v>
       </c>
       <c r="D39" s="1">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E39" s="1">
         <v>90</v>
@@ -1754,19 +1754,19 @@
         <v>91</v>
       </c>
       <c r="G39" s="1">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="H39" s="1">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="I39" s="1">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="J39" s="1">
         <v>95</v>
       </c>
       <c r="K39" s="1">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
         <v>89</v>
       </c>
       <c r="D40" s="1">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E40" s="1">
         <v>91</v>
@@ -1789,19 +1789,19 @@
         <v>92</v>
       </c>
       <c r="G40" s="1">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H40" s="1">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="I40" s="1">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="J40" s="1">
         <v>96</v>
       </c>
       <c r="K40" s="1">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1815,7 +1815,7 @@
         <v>90</v>
       </c>
       <c r="D41" s="1">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>92</v>
@@ -1824,19 +1824,19 @@
         <v>93</v>
       </c>
       <c r="G41" s="1">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H41" s="1">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="I41" s="1">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="J41" s="1">
         <v>97</v>
       </c>
       <c r="K41" s="1">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>91</v>
       </c>
       <c r="D42" s="1">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1">
         <v>93</v>
@@ -1859,19 +1859,19 @@
         <v>94</v>
       </c>
       <c r="G42" s="1">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="H42" s="1">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="I42" s="1">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="J42" s="1">
         <v>98</v>
       </c>
       <c r="K42" s="1">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1885,7 +1885,7 @@
         <v>92</v>
       </c>
       <c r="D43" s="1">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1">
         <v>94</v>
@@ -1894,19 +1894,19 @@
         <v>95</v>
       </c>
       <c r="G43" s="1">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="H43" s="1">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="I43" s="1">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="J43" s="1">
         <v>99</v>
       </c>
       <c r="K43" s="1">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1920,7 +1920,7 @@
         <v>93</v>
       </c>
       <c r="D44" s="1">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E44" s="1">
         <v>95</v>
@@ -1929,19 +1929,19 @@
         <v>96</v>
       </c>
       <c r="G44" s="1">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H44" s="1">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="I44" s="1">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="J44" s="1">
         <v>100</v>
       </c>
       <c r="K44" s="1">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1955,7 +1955,7 @@
         <v>94</v>
       </c>
       <c r="D45" s="1">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E45" s="1">
         <v>96</v>
@@ -1964,19 +1964,19 @@
         <v>97</v>
       </c>
       <c r="G45" s="1">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="H45" s="1">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="I45" s="1">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="J45" s="1">
         <v>101</v>
       </c>
       <c r="K45" s="1">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1990,7 +1990,7 @@
         <v>95</v>
       </c>
       <c r="D46" s="1">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E46" s="1">
         <v>97</v>
@@ -1999,19 +1999,19 @@
         <v>98</v>
       </c>
       <c r="G46" s="1">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="H46" s="1">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="I46" s="1">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="J46" s="1">
         <v>102</v>
       </c>
       <c r="K46" s="1">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
         <v>96</v>
       </c>
       <c r="D47" s="1">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E47" s="1">
         <v>98</v>
@@ -2034,19 +2034,19 @@
         <v>99</v>
       </c>
       <c r="G47" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="H47" s="1">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="I47" s="1">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="J47" s="1">
         <v>103</v>
       </c>
       <c r="K47" s="1">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2060,7 +2060,7 @@
         <v>97</v>
       </c>
       <c r="D48" s="1">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1">
         <v>99</v>
@@ -2069,19 +2069,19 @@
         <v>100</v>
       </c>
       <c r="G48" s="1">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="H48" s="1">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="I48" s="1">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="J48" s="1">
         <v>104</v>
       </c>
       <c r="K48" s="1">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2095,7 +2095,7 @@
         <v>98</v>
       </c>
       <c r="D49" s="1">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1">
         <v>100</v>
@@ -2104,19 +2104,19 @@
         <v>101</v>
       </c>
       <c r="G49" s="1">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="H49" s="1">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="I49" s="1">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="J49" s="1">
         <v>105</v>
       </c>
       <c r="K49" s="1">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2130,7 +2130,7 @@
         <v>99</v>
       </c>
       <c r="D50" s="1">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="E50" s="1">
         <v>101</v>
@@ -2139,19 +2139,19 @@
         <v>102</v>
       </c>
       <c r="G50" s="1">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="H50" s="1">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="I50" s="1">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="J50" s="1">
         <v>106</v>
       </c>
       <c r="K50" s="1">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <v>100</v>
       </c>
       <c r="D51" s="1">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="E51" s="1">
         <v>102</v>
@@ -2174,19 +2174,1769 @@
         <v>103</v>
       </c>
       <c r="G51" s="1">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="H51" s="1">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="I51" s="1">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="J51" s="1">
         <v>107</v>
       </c>
       <c r="K51" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1">
+        <v>101</v>
+      </c>
+      <c r="D52" s="1">
+        <v>102</v>
+      </c>
+      <c r="E52" s="1">
+        <v>103</v>
+      </c>
+      <c r="F52" s="1">
+        <v>104</v>
+      </c>
+      <c r="G52" s="1">
+        <v>105</v>
+      </c>
+      <c r="H52" s="1">
+        <v>106</v>
+      </c>
+      <c r="I52" s="1">
+        <v>107</v>
+      </c>
+      <c r="J52" s="1">
+        <v>108</v>
+      </c>
+      <c r="K52" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>101</v>
+      </c>
+      <c r="C53" s="1">
+        <v>102</v>
+      </c>
+      <c r="D53" s="1">
+        <v>103</v>
+      </c>
+      <c r="E53" s="1">
+        <v>104</v>
+      </c>
+      <c r="F53" s="1">
+        <v>105</v>
+      </c>
+      <c r="G53" s="1">
+        <v>106</v>
+      </c>
+      <c r="H53" s="1">
+        <v>107</v>
+      </c>
+      <c r="I53" s="1">
+        <v>108</v>
+      </c>
+      <c r="J53" s="1">
+        <v>109</v>
+      </c>
+      <c r="K53" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>102</v>
+      </c>
+      <c r="C54" s="1">
+        <v>103</v>
+      </c>
+      <c r="D54" s="1">
+        <v>104</v>
+      </c>
+      <c r="E54" s="1">
+        <v>105</v>
+      </c>
+      <c r="F54" s="1">
+        <v>106</v>
+      </c>
+      <c r="G54" s="1">
+        <v>107</v>
+      </c>
+      <c r="H54" s="1">
+        <v>108</v>
+      </c>
+      <c r="I54" s="1">
+        <v>109</v>
+      </c>
+      <c r="J54" s="1">
+        <v>110</v>
+      </c>
+      <c r="K54" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1">
+        <v>104</v>
+      </c>
+      <c r="D55" s="1">
+        <v>105</v>
+      </c>
+      <c r="E55" s="1">
+        <v>106</v>
+      </c>
+      <c r="F55" s="1">
+        <v>107</v>
+      </c>
+      <c r="G55" s="1">
+        <v>108</v>
+      </c>
+      <c r="H55" s="1">
+        <v>109</v>
+      </c>
+      <c r="I55" s="1">
+        <v>110</v>
+      </c>
+      <c r="J55" s="1">
+        <v>111</v>
+      </c>
+      <c r="K55" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1">
+        <v>105</v>
+      </c>
+      <c r="D56" s="1">
+        <v>106</v>
+      </c>
+      <c r="E56" s="1">
+        <v>107</v>
+      </c>
+      <c r="F56" s="1">
+        <v>108</v>
+      </c>
+      <c r="G56" s="1">
+        <v>109</v>
+      </c>
+      <c r="H56" s="1">
+        <v>110</v>
+      </c>
+      <c r="I56" s="1">
+        <v>111</v>
+      </c>
+      <c r="J56" s="1">
+        <v>112</v>
+      </c>
+      <c r="K56" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>105</v>
+      </c>
+      <c r="C57" s="1">
+        <v>106</v>
+      </c>
+      <c r="D57" s="1">
+        <v>107</v>
+      </c>
+      <c r="E57" s="1">
+        <v>108</v>
+      </c>
+      <c r="F57" s="1">
+        <v>109</v>
+      </c>
+      <c r="G57" s="1">
+        <v>110</v>
+      </c>
+      <c r="H57" s="1">
+        <v>111</v>
+      </c>
+      <c r="I57" s="1">
+        <v>112</v>
+      </c>
+      <c r="J57" s="1">
+        <v>113</v>
+      </c>
+      <c r="K57" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>106</v>
+      </c>
+      <c r="C58" s="1">
+        <v>107</v>
+      </c>
+      <c r="D58" s="1">
+        <v>108</v>
+      </c>
+      <c r="E58" s="1">
+        <v>109</v>
+      </c>
+      <c r="F58" s="1">
+        <v>110</v>
+      </c>
+      <c r="G58" s="1">
+        <v>111</v>
+      </c>
+      <c r="H58" s="1">
+        <v>112</v>
+      </c>
+      <c r="I58" s="1">
+        <v>113</v>
+      </c>
+      <c r="J58" s="1">
+        <v>114</v>
+      </c>
+      <c r="K58" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>107</v>
+      </c>
+      <c r="C59" s="1">
+        <v>108</v>
+      </c>
+      <c r="D59" s="1">
+        <v>109</v>
+      </c>
+      <c r="E59" s="1">
+        <v>110</v>
+      </c>
+      <c r="F59" s="1">
+        <v>111</v>
+      </c>
+      <c r="G59" s="1">
+        <v>112</v>
+      </c>
+      <c r="H59" s="1">
+        <v>113</v>
+      </c>
+      <c r="I59" s="1">
+        <v>114</v>
+      </c>
+      <c r="J59" s="1">
+        <v>115</v>
+      </c>
+      <c r="K59" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>108</v>
+      </c>
+      <c r="C60" s="1">
+        <v>109</v>
+      </c>
+      <c r="D60" s="1">
+        <v>110</v>
+      </c>
+      <c r="E60" s="1">
+        <v>111</v>
+      </c>
+      <c r="F60" s="1">
+        <v>112</v>
+      </c>
+      <c r="G60" s="1">
+        <v>113</v>
+      </c>
+      <c r="H60" s="1">
+        <v>114</v>
+      </c>
+      <c r="I60" s="1">
+        <v>115</v>
+      </c>
+      <c r="J60" s="1">
+        <v>116</v>
+      </c>
+      <c r="K60" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>109</v>
+      </c>
+      <c r="C61" s="1">
+        <v>110</v>
+      </c>
+      <c r="D61" s="1">
+        <v>111</v>
+      </c>
+      <c r="E61" s="1">
+        <v>112</v>
+      </c>
+      <c r="F61" s="1">
+        <v>113</v>
+      </c>
+      <c r="G61" s="1">
+        <v>114</v>
+      </c>
+      <c r="H61" s="1">
+        <v>115</v>
+      </c>
+      <c r="I61" s="1">
+        <v>116</v>
+      </c>
+      <c r="J61" s="1">
+        <v>117</v>
+      </c>
+      <c r="K61" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>110</v>
+      </c>
+      <c r="C62" s="1">
+        <v>111</v>
+      </c>
+      <c r="D62" s="1">
+        <v>112</v>
+      </c>
+      <c r="E62" s="1">
+        <v>113</v>
+      </c>
+      <c r="F62" s="1">
+        <v>114</v>
+      </c>
+      <c r="G62" s="1">
+        <v>115</v>
+      </c>
+      <c r="H62" s="1">
+        <v>116</v>
+      </c>
+      <c r="I62" s="1">
+        <v>117</v>
+      </c>
+      <c r="J62" s="1">
+        <v>118</v>
+      </c>
+      <c r="K62" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>111</v>
+      </c>
+      <c r="C63" s="1">
+        <v>112</v>
+      </c>
+      <c r="D63" s="1">
+        <v>113</v>
+      </c>
+      <c r="E63" s="1">
+        <v>114</v>
+      </c>
+      <c r="F63" s="1">
+        <v>115</v>
+      </c>
+      <c r="G63" s="1">
+        <v>116</v>
+      </c>
+      <c r="H63" s="1">
+        <v>117</v>
+      </c>
+      <c r="I63" s="1">
+        <v>118</v>
+      </c>
+      <c r="J63" s="1">
+        <v>119</v>
+      </c>
+      <c r="K63" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1">
+        <v>113</v>
+      </c>
+      <c r="D64" s="1">
+        <v>114</v>
+      </c>
+      <c r="E64" s="1">
+        <v>115</v>
+      </c>
+      <c r="F64" s="1">
+        <v>116</v>
+      </c>
+      <c r="G64" s="1">
+        <v>117</v>
+      </c>
+      <c r="H64" s="1">
+        <v>118</v>
+      </c>
+      <c r="I64" s="1">
+        <v>119</v>
+      </c>
+      <c r="J64" s="1">
+        <v>120</v>
+      </c>
+      <c r="K64" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>113</v>
+      </c>
+      <c r="C65" s="1">
+        <v>114</v>
+      </c>
+      <c r="D65" s="1">
+        <v>115</v>
+      </c>
+      <c r="E65" s="1">
+        <v>116</v>
+      </c>
+      <c r="F65" s="1">
+        <v>117</v>
+      </c>
+      <c r="G65" s="1">
+        <v>118</v>
+      </c>
+      <c r="H65" s="1">
+        <v>119</v>
+      </c>
+      <c r="I65" s="1">
+        <v>120</v>
+      </c>
+      <c r="J65" s="1">
+        <v>121</v>
+      </c>
+      <c r="K65" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>114</v>
+      </c>
+      <c r="C66" s="1">
+        <v>115</v>
+      </c>
+      <c r="D66" s="1">
+        <v>116</v>
+      </c>
+      <c r="E66" s="1">
+        <v>117</v>
+      </c>
+      <c r="F66" s="1">
+        <v>118</v>
+      </c>
+      <c r="G66" s="1">
+        <v>119</v>
+      </c>
+      <c r="H66" s="1">
+        <v>120</v>
+      </c>
+      <c r="I66" s="1">
+        <v>121</v>
+      </c>
+      <c r="J66" s="1">
+        <v>122</v>
+      </c>
+      <c r="K66" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1">
+        <v>116</v>
+      </c>
+      <c r="D67" s="1">
+        <v>117</v>
+      </c>
+      <c r="E67" s="1">
+        <v>118</v>
+      </c>
+      <c r="F67" s="1">
+        <v>119</v>
+      </c>
+      <c r="G67" s="1">
+        <v>120</v>
+      </c>
+      <c r="H67" s="1">
+        <v>121</v>
+      </c>
+      <c r="I67" s="1">
+        <v>122</v>
+      </c>
+      <c r="J67" s="1">
+        <v>123</v>
+      </c>
+      <c r="K67" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>116</v>
+      </c>
+      <c r="C68" s="1">
+        <v>117</v>
+      </c>
+      <c r="D68" s="1">
+        <v>118</v>
+      </c>
+      <c r="E68" s="1">
+        <v>119</v>
+      </c>
+      <c r="F68" s="1">
+        <v>120</v>
+      </c>
+      <c r="G68" s="1">
+        <v>121</v>
+      </c>
+      <c r="H68" s="1">
+        <v>122</v>
+      </c>
+      <c r="I68" s="1">
+        <v>123</v>
+      </c>
+      <c r="J68" s="1">
+        <v>124</v>
+      </c>
+      <c r="K68" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>117</v>
+      </c>
+      <c r="C69" s="1">
+        <v>118</v>
+      </c>
+      <c r="D69" s="1">
+        <v>119</v>
+      </c>
+      <c r="E69" s="1">
+        <v>120</v>
+      </c>
+      <c r="F69" s="1">
+        <v>121</v>
+      </c>
+      <c r="G69" s="1">
+        <v>122</v>
+      </c>
+      <c r="H69" s="1">
+        <v>123</v>
+      </c>
+      <c r="I69" s="1">
+        <v>124</v>
+      </c>
+      <c r="J69" s="1">
+        <v>125</v>
+      </c>
+      <c r="K69" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>118</v>
+      </c>
+      <c r="C70" s="1">
+        <v>119</v>
+      </c>
+      <c r="D70" s="1">
+        <v>120</v>
+      </c>
+      <c r="E70" s="1">
+        <v>121</v>
+      </c>
+      <c r="F70" s="1">
+        <v>122</v>
+      </c>
+      <c r="G70" s="1">
+        <v>123</v>
+      </c>
+      <c r="H70" s="1">
+        <v>124</v>
+      </c>
+      <c r="I70" s="1">
+        <v>125</v>
+      </c>
+      <c r="J70" s="1">
+        <v>126</v>
+      </c>
+      <c r="K70" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>119</v>
+      </c>
+      <c r="C71" s="1">
+        <v>120</v>
+      </c>
+      <c r="D71" s="1">
+        <v>121</v>
+      </c>
+      <c r="E71" s="1">
+        <v>122</v>
+      </c>
+      <c r="F71" s="1">
+        <v>123</v>
+      </c>
+      <c r="G71" s="1">
+        <v>124</v>
+      </c>
+      <c r="H71" s="1">
+        <v>125</v>
+      </c>
+      <c r="I71" s="1">
+        <v>126</v>
+      </c>
+      <c r="J71" s="1">
+        <v>127</v>
+      </c>
+      <c r="K71" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>120</v>
+      </c>
+      <c r="C72" s="1">
+        <v>121</v>
+      </c>
+      <c r="D72" s="1">
+        <v>122</v>
+      </c>
+      <c r="E72" s="1">
+        <v>123</v>
+      </c>
+      <c r="F72" s="1">
+        <v>124</v>
+      </c>
+      <c r="G72" s="1">
+        <v>125</v>
+      </c>
+      <c r="H72" s="1">
+        <v>126</v>
+      </c>
+      <c r="I72" s="1">
+        <v>127</v>
+      </c>
+      <c r="J72" s="1">
+        <v>128</v>
+      </c>
+      <c r="K72" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>121</v>
+      </c>
+      <c r="C73" s="1">
+        <v>122</v>
+      </c>
+      <c r="D73" s="1">
+        <v>123</v>
+      </c>
+      <c r="E73" s="1">
+        <v>124</v>
+      </c>
+      <c r="F73" s="1">
+        <v>125</v>
+      </c>
+      <c r="G73" s="1">
+        <v>126</v>
+      </c>
+      <c r="H73" s="1">
+        <v>127</v>
+      </c>
+      <c r="I73" s="1">
+        <v>128</v>
+      </c>
+      <c r="J73" s="1">
+        <v>129</v>
+      </c>
+      <c r="K73" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>122</v>
+      </c>
+      <c r="C74" s="1">
+        <v>123</v>
+      </c>
+      <c r="D74" s="1">
+        <v>124</v>
+      </c>
+      <c r="E74" s="1">
+        <v>125</v>
+      </c>
+      <c r="F74" s="1">
+        <v>126</v>
+      </c>
+      <c r="G74" s="1">
+        <v>127</v>
+      </c>
+      <c r="H74" s="1">
+        <v>128</v>
+      </c>
+      <c r="I74" s="1">
+        <v>129</v>
+      </c>
+      <c r="J74" s="1">
+        <v>130</v>
+      </c>
+      <c r="K74" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>123</v>
+      </c>
+      <c r="C75" s="1">
+        <v>124</v>
+      </c>
+      <c r="D75" s="1">
+        <v>125</v>
+      </c>
+      <c r="E75" s="1">
+        <v>126</v>
+      </c>
+      <c r="F75" s="1">
+        <v>127</v>
+      </c>
+      <c r="G75" s="1">
+        <v>128</v>
+      </c>
+      <c r="H75" s="1">
+        <v>129</v>
+      </c>
+      <c r="I75" s="1">
+        <v>130</v>
+      </c>
+      <c r="J75" s="1">
+        <v>131</v>
+      </c>
+      <c r="K75" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>124</v>
+      </c>
+      <c r="C76" s="1">
+        <v>125</v>
+      </c>
+      <c r="D76" s="1">
+        <v>126</v>
+      </c>
+      <c r="E76" s="1">
+        <v>127</v>
+      </c>
+      <c r="F76" s="1">
+        <v>128</v>
+      </c>
+      <c r="G76" s="1">
+        <v>129</v>
+      </c>
+      <c r="H76" s="1">
+        <v>130</v>
+      </c>
+      <c r="I76" s="1">
+        <v>131</v>
+      </c>
+      <c r="J76" s="1">
+        <v>132</v>
+      </c>
+      <c r="K76" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>125</v>
+      </c>
+      <c r="C77" s="1">
+        <v>126</v>
+      </c>
+      <c r="D77" s="1">
+        <v>127</v>
+      </c>
+      <c r="E77" s="1">
+        <v>128</v>
+      </c>
+      <c r="F77" s="1">
+        <v>129</v>
+      </c>
+      <c r="G77" s="1">
+        <v>130</v>
+      </c>
+      <c r="H77" s="1">
+        <v>131</v>
+      </c>
+      <c r="I77" s="1">
+        <v>132</v>
+      </c>
+      <c r="J77" s="1">
+        <v>133</v>
+      </c>
+      <c r="K77" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>126</v>
+      </c>
+      <c r="C78" s="1">
+        <v>127</v>
+      </c>
+      <c r="D78" s="1">
+        <v>128</v>
+      </c>
+      <c r="E78" s="1">
+        <v>129</v>
+      </c>
+      <c r="F78" s="1">
+        <v>130</v>
+      </c>
+      <c r="G78" s="1">
+        <v>131</v>
+      </c>
+      <c r="H78" s="1">
+        <v>132</v>
+      </c>
+      <c r="I78" s="1">
+        <v>133</v>
+      </c>
+      <c r="J78" s="1">
+        <v>134</v>
+      </c>
+      <c r="K78" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>127</v>
+      </c>
+      <c r="C79" s="1">
+        <v>128</v>
+      </c>
+      <c r="D79" s="1">
+        <v>129</v>
+      </c>
+      <c r="E79" s="1">
+        <v>130</v>
+      </c>
+      <c r="F79" s="1">
+        <v>131</v>
+      </c>
+      <c r="G79" s="1">
+        <v>132</v>
+      </c>
+      <c r="H79" s="1">
+        <v>133</v>
+      </c>
+      <c r="I79" s="1">
+        <v>134</v>
+      </c>
+      <c r="J79" s="1">
+        <v>135</v>
+      </c>
+      <c r="K79" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>128</v>
+      </c>
+      <c r="C80" s="1">
+        <v>129</v>
+      </c>
+      <c r="D80" s="1">
+        <v>130</v>
+      </c>
+      <c r="E80" s="1">
+        <v>131</v>
+      </c>
+      <c r="F80" s="1">
+        <v>132</v>
+      </c>
+      <c r="G80" s="1">
+        <v>133</v>
+      </c>
+      <c r="H80" s="1">
+        <v>134</v>
+      </c>
+      <c r="I80" s="1">
+        <v>135</v>
+      </c>
+      <c r="J80" s="1">
+        <v>136</v>
+      </c>
+      <c r="K80" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>129</v>
+      </c>
+      <c r="C81" s="1">
+        <v>130</v>
+      </c>
+      <c r="D81" s="1">
+        <v>131</v>
+      </c>
+      <c r="E81" s="1">
+        <v>132</v>
+      </c>
+      <c r="F81" s="1">
+        <v>133</v>
+      </c>
+      <c r="G81" s="1">
+        <v>134</v>
+      </c>
+      <c r="H81" s="1">
+        <v>135</v>
+      </c>
+      <c r="I81" s="1">
+        <v>136</v>
+      </c>
+      <c r="J81" s="1">
+        <v>137</v>
+      </c>
+      <c r="K81" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>130</v>
+      </c>
+      <c r="C82" s="1">
+        <v>131</v>
+      </c>
+      <c r="D82" s="1">
+        <v>132</v>
+      </c>
+      <c r="E82" s="1">
+        <v>133</v>
+      </c>
+      <c r="F82" s="1">
+        <v>134</v>
+      </c>
+      <c r="G82" s="1">
+        <v>135</v>
+      </c>
+      <c r="H82" s="1">
+        <v>136</v>
+      </c>
+      <c r="I82" s="1">
+        <v>137</v>
+      </c>
+      <c r="J82" s="1">
+        <v>138</v>
+      </c>
+      <c r="K82" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>131</v>
+      </c>
+      <c r="C83" s="1">
+        <v>132</v>
+      </c>
+      <c r="D83" s="1">
+        <v>133</v>
+      </c>
+      <c r="E83" s="1">
+        <v>134</v>
+      </c>
+      <c r="F83" s="1">
+        <v>135</v>
+      </c>
+      <c r="G83" s="1">
+        <v>136</v>
+      </c>
+      <c r="H83" s="1">
+        <v>137</v>
+      </c>
+      <c r="I83" s="1">
+        <v>138</v>
+      </c>
+      <c r="J83" s="1">
+        <v>139</v>
+      </c>
+      <c r="K83" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>132</v>
+      </c>
+      <c r="C84" s="1">
+        <v>133</v>
+      </c>
+      <c r="D84" s="1">
+        <v>134</v>
+      </c>
+      <c r="E84" s="1">
+        <v>135</v>
+      </c>
+      <c r="F84" s="1">
+        <v>136</v>
+      </c>
+      <c r="G84" s="1">
+        <v>137</v>
+      </c>
+      <c r="H84" s="1">
+        <v>138</v>
+      </c>
+      <c r="I84" s="1">
+        <v>139</v>
+      </c>
+      <c r="J84" s="1">
+        <v>140</v>
+      </c>
+      <c r="K84" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>133</v>
+      </c>
+      <c r="C85" s="1">
+        <v>134</v>
+      </c>
+      <c r="D85" s="1">
+        <v>135</v>
+      </c>
+      <c r="E85" s="1">
+        <v>136</v>
+      </c>
+      <c r="F85" s="1">
+        <v>137</v>
+      </c>
+      <c r="G85" s="1">
+        <v>138</v>
+      </c>
+      <c r="H85" s="1">
+        <v>139</v>
+      </c>
+      <c r="I85" s="1">
+        <v>140</v>
+      </c>
+      <c r="J85" s="1">
+        <v>141</v>
+      </c>
+      <c r="K85" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>134</v>
+      </c>
+      <c r="C86" s="1">
+        <v>135</v>
+      </c>
+      <c r="D86" s="1">
+        <v>136</v>
+      </c>
+      <c r="E86" s="1">
+        <v>137</v>
+      </c>
+      <c r="F86" s="1">
+        <v>138</v>
+      </c>
+      <c r="G86" s="1">
+        <v>139</v>
+      </c>
+      <c r="H86" s="1">
+        <v>140</v>
+      </c>
+      <c r="I86" s="1">
+        <v>141</v>
+      </c>
+      <c r="J86" s="1">
+        <v>142</v>
+      </c>
+      <c r="K86" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>135</v>
+      </c>
+      <c r="C87" s="1">
+        <v>136</v>
+      </c>
+      <c r="D87" s="1">
+        <v>137</v>
+      </c>
+      <c r="E87" s="1">
+        <v>138</v>
+      </c>
+      <c r="F87" s="1">
+        <v>139</v>
+      </c>
+      <c r="G87" s="1">
+        <v>140</v>
+      </c>
+      <c r="H87" s="1">
+        <v>141</v>
+      </c>
+      <c r="I87" s="1">
+        <v>142</v>
+      </c>
+      <c r="J87" s="1">
+        <v>143</v>
+      </c>
+      <c r="K87" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>136</v>
+      </c>
+      <c r="C88" s="1">
+        <v>137</v>
+      </c>
+      <c r="D88" s="1">
+        <v>138</v>
+      </c>
+      <c r="E88" s="1">
+        <v>139</v>
+      </c>
+      <c r="F88" s="1">
+        <v>140</v>
+      </c>
+      <c r="G88" s="1">
+        <v>141</v>
+      </c>
+      <c r="H88" s="1">
+        <v>142</v>
+      </c>
+      <c r="I88" s="1">
+        <v>143</v>
+      </c>
+      <c r="J88" s="1">
+        <v>144</v>
+      </c>
+      <c r="K88" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>137</v>
+      </c>
+      <c r="C89" s="1">
+        <v>138</v>
+      </c>
+      <c r="D89" s="1">
+        <v>139</v>
+      </c>
+      <c r="E89" s="1">
+        <v>140</v>
+      </c>
+      <c r="F89" s="1">
+        <v>141</v>
+      </c>
+      <c r="G89" s="1">
+        <v>142</v>
+      </c>
+      <c r="H89" s="1">
+        <v>143</v>
+      </c>
+      <c r="I89" s="1">
+        <v>144</v>
+      </c>
+      <c r="J89" s="1">
+        <v>145</v>
+      </c>
+      <c r="K89" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>138</v>
+      </c>
+      <c r="C90" s="1">
+        <v>139</v>
+      </c>
+      <c r="D90" s="1">
+        <v>140</v>
+      </c>
+      <c r="E90" s="1">
+        <v>141</v>
+      </c>
+      <c r="F90" s="1">
+        <v>142</v>
+      </c>
+      <c r="G90" s="1">
+        <v>143</v>
+      </c>
+      <c r="H90" s="1">
+        <v>144</v>
+      </c>
+      <c r="I90" s="1">
+        <v>145</v>
+      </c>
+      <c r="J90" s="1">
+        <v>146</v>
+      </c>
+      <c r="K90" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>139</v>
+      </c>
+      <c r="C91" s="1">
+        <v>140</v>
+      </c>
+      <c r="D91" s="1">
+        <v>141</v>
+      </c>
+      <c r="E91" s="1">
+        <v>142</v>
+      </c>
+      <c r="F91" s="1">
+        <v>143</v>
+      </c>
+      <c r="G91" s="1">
+        <v>144</v>
+      </c>
+      <c r="H91" s="1">
+        <v>145</v>
+      </c>
+      <c r="I91" s="1">
+        <v>146</v>
+      </c>
+      <c r="J91" s="1">
+        <v>147</v>
+      </c>
+      <c r="K91" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>140</v>
+      </c>
+      <c r="C92" s="1">
+        <v>141</v>
+      </c>
+      <c r="D92" s="1">
+        <v>142</v>
+      </c>
+      <c r="E92" s="1">
+        <v>143</v>
+      </c>
+      <c r="F92" s="1">
+        <v>144</v>
+      </c>
+      <c r="G92" s="1">
+        <v>145</v>
+      </c>
+      <c r="H92" s="1">
+        <v>146</v>
+      </c>
+      <c r="I92" s="1">
+        <v>147</v>
+      </c>
+      <c r="J92" s="1">
+        <v>148</v>
+      </c>
+      <c r="K92" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>141</v>
+      </c>
+      <c r="C93" s="1">
+        <v>142</v>
+      </c>
+      <c r="D93" s="1">
+        <v>143</v>
+      </c>
+      <c r="E93" s="1">
+        <v>144</v>
+      </c>
+      <c r="F93" s="1">
+        <v>145</v>
+      </c>
+      <c r="G93" s="1">
+        <v>146</v>
+      </c>
+      <c r="H93" s="1">
+        <v>147</v>
+      </c>
+      <c r="I93" s="1">
+        <v>148</v>
+      </c>
+      <c r="J93" s="1">
+        <v>149</v>
+      </c>
+      <c r="K93" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>142</v>
+      </c>
+      <c r="C94" s="1">
+        <v>143</v>
+      </c>
+      <c r="D94" s="1">
+        <v>144</v>
+      </c>
+      <c r="E94" s="1">
+        <v>145</v>
+      </c>
+      <c r="F94" s="1">
+        <v>146</v>
+      </c>
+      <c r="G94" s="1">
+        <v>147</v>
+      </c>
+      <c r="H94" s="1">
+        <v>148</v>
+      </c>
+      <c r="I94" s="1">
+        <v>149</v>
+      </c>
+      <c r="J94" s="1">
+        <v>150</v>
+      </c>
+      <c r="K94" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>143</v>
+      </c>
+      <c r="C95" s="1">
+        <v>144</v>
+      </c>
+      <c r="D95" s="1">
+        <v>145</v>
+      </c>
+      <c r="E95" s="1">
+        <v>146</v>
+      </c>
+      <c r="F95" s="1">
+        <v>147</v>
+      </c>
+      <c r="G95" s="1">
+        <v>148</v>
+      </c>
+      <c r="H95" s="1">
+        <v>149</v>
+      </c>
+      <c r="I95" s="1">
+        <v>150</v>
+      </c>
+      <c r="J95" s="1">
+        <v>151</v>
+      </c>
+      <c r="K95" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>144</v>
+      </c>
+      <c r="C96" s="1">
+        <v>145</v>
+      </c>
+      <c r="D96" s="1">
+        <v>146</v>
+      </c>
+      <c r="E96" s="1">
+        <v>147</v>
+      </c>
+      <c r="F96" s="1">
+        <v>148</v>
+      </c>
+      <c r="G96" s="1">
+        <v>149</v>
+      </c>
+      <c r="H96" s="1">
+        <v>150</v>
+      </c>
+      <c r="I96" s="1">
+        <v>151</v>
+      </c>
+      <c r="J96" s="1">
+        <v>152</v>
+      </c>
+      <c r="K96" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>145</v>
+      </c>
+      <c r="C97" s="1">
+        <v>146</v>
+      </c>
+      <c r="D97" s="1">
+        <v>147</v>
+      </c>
+      <c r="E97" s="1">
+        <v>148</v>
+      </c>
+      <c r="F97" s="1">
+        <v>149</v>
+      </c>
+      <c r="G97" s="1">
+        <v>150</v>
+      </c>
+      <c r="H97" s="1">
+        <v>151</v>
+      </c>
+      <c r="I97" s="1">
+        <v>152</v>
+      </c>
+      <c r="J97" s="1">
+        <v>153</v>
+      </c>
+      <c r="K97" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>146</v>
+      </c>
+      <c r="C98" s="1">
+        <v>147</v>
+      </c>
+      <c r="D98" s="1">
+        <v>148</v>
+      </c>
+      <c r="E98" s="1">
+        <v>149</v>
+      </c>
+      <c r="F98" s="1">
+        <v>150</v>
+      </c>
+      <c r="G98" s="1">
+        <v>151</v>
+      </c>
+      <c r="H98" s="1">
+        <v>152</v>
+      </c>
+      <c r="I98" s="1">
+        <v>153</v>
+      </c>
+      <c r="J98" s="1">
+        <v>154</v>
+      </c>
+      <c r="K98" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>147</v>
+      </c>
+      <c r="C99" s="1">
+        <v>148</v>
+      </c>
+      <c r="D99" s="1">
+        <v>149</v>
+      </c>
+      <c r="E99" s="1">
+        <v>150</v>
+      </c>
+      <c r="F99" s="1">
+        <v>151</v>
+      </c>
+      <c r="G99" s="1">
+        <v>152</v>
+      </c>
+      <c r="H99" s="1">
+        <v>153</v>
+      </c>
+      <c r="I99" s="1">
+        <v>154</v>
+      </c>
+      <c r="J99" s="1">
+        <v>155</v>
+      </c>
+      <c r="K99" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>148</v>
+      </c>
+      <c r="C100" s="1">
+        <v>149</v>
+      </c>
+      <c r="D100" s="1">
+        <v>150</v>
+      </c>
+      <c r="E100" s="1">
+        <v>151</v>
+      </c>
+      <c r="F100" s="1">
+        <v>152</v>
+      </c>
+      <c r="G100" s="1">
+        <v>153</v>
+      </c>
+      <c r="H100" s="1">
+        <v>154</v>
+      </c>
+      <c r="I100" s="1">
+        <v>155</v>
+      </c>
+      <c r="J100" s="1">
+        <v>156</v>
+      </c>
+      <c r="K100" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>149</v>
+      </c>
+      <c r="C101" s="1">
+        <v>150</v>
+      </c>
+      <c r="D101" s="1">
+        <v>151</v>
+      </c>
+      <c r="E101" s="1">
+        <v>152</v>
+      </c>
+      <c r="F101" s="1">
+        <v>153</v>
+      </c>
+      <c r="G101" s="1">
+        <v>154</v>
+      </c>
+      <c r="H101" s="1">
+        <v>155</v>
+      </c>
+      <c r="I101" s="1">
+        <v>156</v>
+      </c>
+      <c r="J101" s="1">
+        <v>157</v>
+      </c>
+      <c r="K101" s="1">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
